--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1229603.690829653</v>
+        <v>-1236040.215405239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13255107.61382277</v>
+        <v>13254517.63443235</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>179.123334320278</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>381.2001313434176</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>120.2027246831803</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615282</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>104.8248812337817</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>23.07869429521003</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.54452505955965</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>108.3304179408354</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5.238212735122373</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>244.4391396026613</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>128.8666810193071</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,16 +1181,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>139.2620598501115</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>158.6305783485249</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>187.9701641734614</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18134693004338</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>182.3330828778342</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>117.8545206798374</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>85.18277722849318</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681704</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>18.34516903856881</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>35.9020970229541</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059334</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>596.9846637005705</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="C2" t="n">
-        <v>203.8091622035011</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>203.8091622035011</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>190.955127773883</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>1028.526606934763</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704474</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596802</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964323</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.77589852374</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958338</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661857</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="W2" t="n">
-        <v>777.9173246301443</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="X2" t="n">
-        <v>596.9846637005705</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="Y2" t="n">
-        <v>596.9846637005705</v>
+        <v>1006.351899316885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>580.1098290832522</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>429.4555986433444</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837181</v>
+        <v>299.3666312648247</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946059</v>
+        <v>162.9201403757124</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777377</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777377</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1940.23166071679</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1763.247848915699</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1553.184705594341</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1330.644703965408</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1100.527458098695</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>911.2203804487062</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>731.9061635242135</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.2595894695633</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0544715355525</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355525</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>839.0589635183461</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>603.3399116865802</v>
+        <v>592.9213836936133</v>
       </c>
       <c r="U4" t="n">
-        <v>603.3399116865802</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>603.3399116865802</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="W4" t="n">
-        <v>603.3399116865802</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="X4" t="n">
-        <v>369.2595894695633</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.2595894695633</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>450.9131740792982</v>
+        <v>252.8718253828216</v>
       </c>
       <c r="C5" t="n">
-        <v>450.9131740792982</v>
+        <v>252.8718253828216</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596597</v>
+        <v>252.8718253828216</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596597</v>
+        <v>252.8718253828216</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634779</v>
+        <v>240.0177909532034</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>230.8954394816106</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845422</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.77589852374</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>1637.351233937037</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="V5" t="n">
-        <v>1637.351233937037</v>
+        <v>1439.309885240561</v>
       </c>
       <c r="W5" t="n">
-        <v>1637.351233937037</v>
+        <v>1439.309885240561</v>
       </c>
       <c r="X5" t="n">
-        <v>1247.898628870094</v>
+        <v>1049.857280173617</v>
       </c>
       <c r="Y5" t="n">
-        <v>851.4079197906951</v>
+        <v>653.3665710942184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817858</v>
+        <v>555.1059253660264</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591879</v>
+        <v>1068.708603975715</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>1582.311282585403</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1987.9326513018</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922403</v>
+        <v>833.7537117207087</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922403</v>
+        <v>833.7537117207087</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475502</v>
+        <v>678.1205986232235</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475502</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475502</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>939.6515579614363</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>656.3211558926139</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>422.2408336755969</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1287724922403</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1566.642398831457</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.734177010587</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="D8" t="n">
-        <v>934.2930482272545</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>732.7128901450678</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>315.8184516750456</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>1566.642398831457</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X8" t="n">
-        <v>1566.642398831457</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1566.642398831457</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>529.4716517347779</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>388.8029044114329</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>834.4501588705843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7311070388184</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>714.6796704260792</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1881.725090502342</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="C11" t="n">
-        <v>1560.345864151467</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="D11" t="n">
-        <v>1246.701010514328</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>915.9137607770666</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>570.8155974532383</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2499.985069341891</v>
       </c>
       <c r="W11" t="n">
-        <v>2528.079890988294</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.423561067545</v>
+        <v>1883.125979535623</v>
       </c>
       <c r="Y11" t="n">
-        <v>2210.423561067545</v>
+        <v>1558.431545602418</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>456.9185815712231</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.690231197904</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.4906955503742</v>
+        <v>409.8585572966836</v>
       </c>
       <c r="C13" t="n">
-        <v>430.0818527625572</v>
+        <v>409.8585572966836</v>
       </c>
       <c r="D13" t="n">
-        <v>346.2450148112659</v>
+        <v>326.0217193453921</v>
       </c>
       <c r="E13" t="n">
-        <v>262.4824778166624</v>
+        <v>242.2591823507884</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>242.2591823507884</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.685342236449</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034673</v>
+        <v>934.9925173272981</v>
       </c>
       <c r="W13" t="n">
-        <v>955.5022722034673</v>
+        <v>723.4583904046696</v>
       </c>
       <c r="X13" t="n">
-        <v>793.2182251326443</v>
+        <v>561.1743433338464</v>
       </c>
       <c r="Y13" t="n">
-        <v>641.9024390954816</v>
+        <v>409.8585572966836</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1645.302650055462</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>813.6365687735851</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>499.9917151364466</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>499.9917151364466</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293022</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>2868.208848589677</v>
+        <v>2675.578323579425</v>
       </c>
       <c r="V14" t="n">
-        <v>2597.898314439389</v>
+        <v>2405.267789429137</v>
       </c>
       <c r="W14" t="n">
-        <v>2298.69555455387</v>
+        <v>2106.065029543619</v>
       </c>
       <c r="X14" t="n">
-        <v>2298.69555455387</v>
+        <v>1788.408699622869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1974.001120620665</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.8748941930974</v>
+        <v>528.4906955503734</v>
       </c>
       <c r="C16" t="n">
-        <v>376.4660514052805</v>
+        <v>430.0818527625564</v>
       </c>
       <c r="D16" t="n">
-        <v>292.6292134539891</v>
+        <v>430.0818527625564</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539891</v>
+        <v>346.3193157679527</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>260.7896561271195</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>164.3318773727588</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>80.64960148044769</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118219</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1113.420597768819</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V16" t="n">
-        <v>1113.420597768819</v>
+        <v>955.5022722034669</v>
       </c>
       <c r="W16" t="n">
-        <v>901.8864708461906</v>
+        <v>955.5022722034669</v>
       </c>
       <c r="X16" t="n">
-        <v>739.6024237753676</v>
+        <v>793.2182251326437</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.2866377382048</v>
+        <v>641.9024390954809</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6072,10 +6072,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662628</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,10 +6382,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225742</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>303.7986541368138</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662628</v>
+        <v>755.8323718938489</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985344</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225741</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286442</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988156</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026472</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054612</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419144</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038543</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067548</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805546</v>
+        <v>507.0483151386151</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458887</v>
+        <v>804.992014051862</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104168</v>
+        <v>988.1816480830712</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1270.762580901358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7117,28 +7117,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.671840509931</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924213</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7196,19 +7196,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,13 +7248,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L39" t="n">
         <v>978.5393418843826</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072653</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462906</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229791</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222398</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O40" t="n">
-        <v>969.324157721467</v>
+        <v>845.847430707221</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7813,19 +7813,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>637.9990225493784</v>
       </c>
       <c r="N2" t="n">
-        <v>266.1293161394354</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679578</v>
+        <v>169.9272434827132</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>379.7393584791169</v>
       </c>
       <c r="N5" t="n">
-        <v>306.7311214244053</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>505.8103775089857</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>179.0989476156325</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>308.5636983559938</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>488.8476739954107</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>280.5807329993939</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,25 +9954,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>684.2495388215578</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -11136,13 +11136,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>166.7809075110261</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>149.9826513886835</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.49301611438145</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.908156454817913</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>223.7926610107527</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>96.93411264652225</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>42.33999967599221</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>175.603994422832</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1164995.641362411</v>
+        <v>1164694.867555531</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1164995.641362411</v>
+        <v>1164694.867555531</v>
       </c>
     </row>
     <row r="4">
@@ -26320,10 +26320,10 @@
         <v>108199.3068560141</v>
       </c>
       <c r="E2" t="n">
-        <v>95615.41405464026</v>
+        <v>95615.41405464028</v>
       </c>
       <c r="F2" t="n">
-        <v>95615.41405464028</v>
+        <v>95615.41405464025</v>
       </c>
       <c r="G2" t="n">
         <v>108199.3068560141</v>
@@ -26332,7 +26332,7 @@
         <v>108199.3068560141</v>
       </c>
       <c r="I2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="J2" t="n">
         <v>108199.306856014</v>
@@ -26344,7 +26344,7 @@
         <v>108199.306856014</v>
       </c>
       <c r="M2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="N2" t="n">
         <v>108199.306856014</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728544</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277109</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589425</v>
+        <v>86988.78851589416</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589425</v>
+        <v>86988.78851589418</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
         <v>135498.1974718596</v>
@@ -26445,10 +26445,10 @@
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="N4" t="n">
         <v>134747.7050074764</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-318765.7473650942</v>
+        <v>-315316.6229714397</v>
       </c>
       <c r="C6" t="n">
-        <v>-136560.7990732382</v>
+        <v>-141457.9659373847</v>
       </c>
       <c r="D6" t="n">
-        <v>-142000.3410490624</v>
+        <v>-149736.6302724541</v>
       </c>
       <c r="E6" t="n">
-        <v>-156681.955635139</v>
+        <v>-156891.6871818284</v>
       </c>
       <c r="F6" t="n">
-        <v>-44559.39416109449</v>
+        <v>-44769.12570778401</v>
       </c>
       <c r="G6" t="n">
         <v>-132143.493003664</v>
       </c>
       <c r="H6" t="n">
-        <v>-84718.16746698208</v>
+        <v>-84718.16746698201</v>
       </c>
       <c r="I6" t="n">
-        <v>-84718.16746698209</v>
+        <v>-84718.16746698202</v>
       </c>
       <c r="J6" t="n">
-        <v>-297760.0850642677</v>
+        <v>-291243.7999096944</v>
       </c>
       <c r="K6" t="n">
         <v>-90957.93586976491</v>
       </c>
       <c r="L6" t="n">
-        <v>-146140.5248043862</v>
+        <v>-150189.3620148585</v>
       </c>
       <c r="M6" t="n">
-        <v>-126918.996926605</v>
+        <v>-127970.6919377933</v>
       </c>
       <c r="N6" t="n">
         <v>-84718.16746698206</v>
       </c>
       <c r="O6" t="n">
-        <v>-112485.8615097532</v>
+        <v>-112485.8615097531</v>
       </c>
       <c r="P6" t="n">
-        <v>-84718.16746698202</v>
+        <v>-84718.16746698201</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,7 +26799,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26814,16 +26814,16 @@
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660681</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551363</v>
+        <v>17.58004954287443</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346386</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>206.4347446959957</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>11.3256706451873</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.984763372519254</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925226</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>95.96304174549445</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,7 +27619,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>270.2976948696146</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>144.864784328912</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>75.25134650297782</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>258.0813389922616</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>144.8046068794374</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>280.1644469375697</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>29.24100690455916</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668765</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,20 +29217,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485211</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431658</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.65052755599535</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833461</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893201</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045584</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>106.8683420224715</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733236</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668675</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30639,23 +30639,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>488.2739709516512</v>
       </c>
       <c r="N2" t="n">
-        <v>117.0108248016513</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864591</v>
+        <v>77.54012143340128</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>230.0143068813896</v>
       </c>
       <c r="N5" t="n">
-        <v>157.6126300866212</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>413.4232554596737</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>88.11079445971852</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>216.1765763066819</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7873271384925</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>188.193610950082</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528578</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>216.4828246711707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516621</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907923</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>598.8774259673912</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446907</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>232.7614092820843</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907923</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394261</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683159873</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272658</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>110.3251060326239</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634527681</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
